--- a/data/sysml2/result/EnvironmentElement.xlsx
+++ b/data/sysml2/result/EnvironmentElement.xlsx
@@ -494,11 +494,7 @@
           <t>EnvironmentElement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -520,11 +516,7 @@
           <t>EnvironmentElement</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -572,7 +564,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -580,12 +572,12 @@
           <t>324</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -598,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -606,12 +598,12 @@
           <t>324</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -631,15 +623,19 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>"晴天"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -661,15 +657,19 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>"晴天"</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EnvironmentElement</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>"大雪"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -969,22 +969,22 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EnvironmentElement</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>"大雪"</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
